--- a/searchCourses/SearchCourses.xlsx
+++ b/searchCourses/SearchCourses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIEU\Desktop\Assignment_3\selenium-testing\searchCourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB73E3-EEB0-463E-A758-8D2EECB56DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984F67C-C3BC-4A21-AF8A-4D33BB522DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6D920844-CA64-45E6-9711-264553664861}"/>
+    <workbookView xWindow="5100" yWindow="1140" windowWidth="21105" windowHeight="14370" xr2:uid="{6D920844-CA64-45E6-9711-264553664861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>activity</t>
   </si>
@@ -89,10 +89,22 @@
     <t>System display all courses</t>
   </si>
   <si>
-    <t>$#</t>
-  </si>
-  <si>
     <t>Activity examples</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>METHOD_TEST</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>Equivalence Class</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469AA842-7564-484D-82D2-0C65D0B1498D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +508,10 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -514,8 +527,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,10 +542,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -537,10 +556,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -551,10 +573,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,13 +587,16 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -581,8 +609,11 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -597,6 +628,14 @@
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
